--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H2">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J2">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6629413333333334</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N2">
-        <v>1.988824</v>
+        <v>2.336614</v>
       </c>
       <c r="O2">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P2">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q2">
-        <v>0.06485577162044445</v>
+        <v>0.1682512661791111</v>
       </c>
       <c r="R2">
-        <v>0.583701944584</v>
+        <v>1.514261395612</v>
       </c>
       <c r="S2">
-        <v>0.0002220654651657149</v>
+        <v>0.0005357951891454387</v>
       </c>
       <c r="T2">
-        <v>0.0002220654651657149</v>
+        <v>0.0005357951891454388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H3">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J3">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.435529</v>
       </c>
       <c r="O3">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P3">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q3">
-        <v>2.916502537971</v>
+        <v>6.439934450298</v>
       </c>
       <c r="R3">
-        <v>26.248522841739</v>
+        <v>57.959410052682</v>
       </c>
       <c r="S3">
-        <v>0.009986073352758607</v>
+        <v>0.0205079342060252</v>
       </c>
       <c r="T3">
-        <v>0.009986073352758607</v>
+        <v>0.02050793420602521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09783033333333334</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H4">
-        <v>0.293491</v>
+        <v>0.648058</v>
       </c>
       <c r="I4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J4">
-        <v>0.01145526398792098</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.723095</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N4">
-        <v>11.169285</v>
+        <v>16.5267</v>
       </c>
       <c r="O4">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P4">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q4">
-        <v>0.3642316248816667</v>
+        <v>1.1900289054</v>
       </c>
       <c r="R4">
-        <v>3.278084623935</v>
+        <v>10.7102601486</v>
       </c>
       <c r="S4">
-        <v>0.001247125169996662</v>
+        <v>0.003789640202639342</v>
       </c>
       <c r="T4">
-        <v>0.001247125169996662</v>
+        <v>0.003789640202639343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.296819666666666</v>
+        <v>0.2160193333333333</v>
       </c>
       <c r="H5">
-        <v>24.890459</v>
+        <v>0.648058</v>
       </c>
       <c r="I5">
-        <v>0.9715009272022777</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="J5">
-        <v>0.9715009272022777</v>
+        <v>0.02486881244588016</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6629413333333334</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N5">
-        <v>1.988824</v>
+        <v>0.154567</v>
       </c>
       <c r="O5">
-        <v>0.01938545156182102</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P5">
-        <v>0.01938545156182102</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q5">
-        <v>5.500304692246222</v>
+        <v>0.01112982009844445</v>
       </c>
       <c r="R5">
-        <v>49.50274223021599</v>
+        <v>0.100168380886</v>
       </c>
       <c r="S5">
-        <v>0.01883298416654396</v>
+        <v>3.544284807017464E-05</v>
       </c>
       <c r="T5">
-        <v>0.01883298416654396</v>
+        <v>3.544284807017464E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>24.890459</v>
       </c>
       <c r="I6">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J6">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.811843</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N6">
-        <v>89.435529</v>
+        <v>2.336614</v>
       </c>
       <c r="O6">
-        <v>0.8717453707996982</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P6">
-        <v>0.8717453707996982</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q6">
-        <v>247.343485301979</v>
+        <v>6.462154996202889</v>
       </c>
       <c r="R6">
-        <v>2226.091367717811</v>
+        <v>58.15939496582599</v>
       </c>
       <c r="S6">
-        <v>0.8469014360162</v>
+        <v>0.0205786954066176</v>
       </c>
       <c r="T6">
-        <v>0.8469014360162</v>
+        <v>0.0205786954066176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J7">
-        <v>0.9715009272022777</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.723095</v>
+        <v>29.811843</v>
       </c>
       <c r="N7">
-        <v>11.169285</v>
+        <v>89.435529</v>
       </c>
       <c r="O7">
-        <v>0.1088691776384809</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P7">
-        <v>0.1088691776384809</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q7">
-        <v>30.88984781686833</v>
+        <v>247.343485301979</v>
       </c>
       <c r="R7">
-        <v>278.008630351815</v>
+        <v>2226.091367717811</v>
       </c>
       <c r="S7">
-        <v>0.1057665070195336</v>
+        <v>0.7876639059000394</v>
       </c>
       <c r="T7">
-        <v>0.1057665070195336</v>
+        <v>0.7876639059000397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.142734</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H8">
-        <v>0.428202</v>
+        <v>24.890459</v>
       </c>
       <c r="I8">
-        <v>0.0167131767248595</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J8">
-        <v>0.0167131767248595</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6629413333333334</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N8">
-        <v>1.988824</v>
+        <v>16.5267</v>
       </c>
       <c r="O8">
-        <v>0.01938545156182102</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P8">
-        <v>0.01938545156182102</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q8">
-        <v>0.094624268272</v>
+        <v>45.7063498617</v>
       </c>
       <c r="R8">
-        <v>0.851618414448</v>
+        <v>411.3571487553</v>
       </c>
       <c r="S8">
-        <v>0.0003239924778439183</v>
+        <v>0.1455516081717164</v>
       </c>
       <c r="T8">
-        <v>0.0003239924778439183</v>
+        <v>0.1455516081717165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.142734</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H9">
-        <v>0.428202</v>
+        <v>24.890459</v>
       </c>
       <c r="I9">
-        <v>0.0167131767248595</v>
+        <v>0.9551554900377276</v>
       </c>
       <c r="J9">
-        <v>0.0167131767248595</v>
+        <v>0.9551554900377278</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>29.811843</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N9">
-        <v>89.435529</v>
+        <v>0.154567</v>
       </c>
       <c r="O9">
-        <v>0.8717453707996982</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P9">
-        <v>0.8717453707996982</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q9">
-        <v>4.255163598762</v>
+        <v>0.4274715084725556</v>
       </c>
       <c r="R9">
-        <v>38.296472388858</v>
+        <v>3.847243576253</v>
       </c>
       <c r="S9">
-        <v>0.01456963444125353</v>
+        <v>0.001361280559354118</v>
       </c>
       <c r="T9">
-        <v>0.01456963444125353</v>
+        <v>0.001361280559354118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.142734</v>
+        <v>0.173491</v>
       </c>
       <c r="H10">
-        <v>0.428202</v>
+        <v>0.520473</v>
       </c>
       <c r="I10">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J10">
-        <v>0.0167131767248595</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.723095</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N10">
-        <v>11.169285</v>
+        <v>2.336614</v>
       </c>
       <c r="O10">
-        <v>0.1088691776384809</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P10">
-        <v>0.1088691776384809</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q10">
-        <v>0.53141224173</v>
+        <v>0.1351271664913333</v>
       </c>
       <c r="R10">
-        <v>4.78271017557</v>
+        <v>1.216144498422</v>
       </c>
       <c r="S10">
-        <v>0.001819549805762053</v>
+        <v>0.0004303116842629732</v>
       </c>
       <c r="T10">
-        <v>0.001819549805762053</v>
+        <v>0.0004303116842629733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.002823666666666667</v>
+        <v>0.173491</v>
       </c>
       <c r="H11">
-        <v>0.008470999999999999</v>
+        <v>0.520473</v>
       </c>
       <c r="I11">
-        <v>0.0003306320849418846</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J11">
-        <v>0.0003306320849418846</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6629413333333334</v>
+        <v>29.811843</v>
       </c>
       <c r="N11">
-        <v>1.988824</v>
+        <v>89.435529</v>
       </c>
       <c r="O11">
-        <v>0.01938545156182102</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P11">
-        <v>0.01938545156182102</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q11">
-        <v>0.001871925344888889</v>
+        <v>5.172086453912999</v>
       </c>
       <c r="R11">
-        <v>0.016847328104</v>
+        <v>46.54877808521699</v>
       </c>
       <c r="S11">
-        <v>6.409452267424795E-06</v>
+        <v>0.01647047955586159</v>
       </c>
       <c r="T11">
-        <v>6.409452267424795E-06</v>
+        <v>0.0164704795558616</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.002823666666666667</v>
+        <v>0.173491</v>
       </c>
       <c r="H12">
-        <v>0.008470999999999999</v>
+        <v>0.520473</v>
       </c>
       <c r="I12">
-        <v>0.0003306320849418846</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="J12">
-        <v>0.0003306320849418846</v>
+        <v>0.01997281943922393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.811843</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N12">
-        <v>89.435529</v>
+        <v>16.5267</v>
       </c>
       <c r="O12">
-        <v>0.8717453707996982</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P12">
-        <v>0.8717453707996982</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q12">
-        <v>0.084178707351</v>
+        <v>0.9557445699</v>
       </c>
       <c r="R12">
-        <v>0.757608366159</v>
+        <v>8.6017011291</v>
       </c>
       <c r="S12">
-        <v>0.0002882269894859404</v>
+        <v>0.003043563084150347</v>
       </c>
       <c r="T12">
-        <v>0.0002882269894859404</v>
+        <v>0.003043563084150348</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.173491</v>
+      </c>
+      <c r="H13">
+        <v>0.520473</v>
+      </c>
+      <c r="I13">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="J13">
+        <v>0.01997281943922393</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.154567</v>
+      </c>
+      <c r="O13">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="P13">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="Q13">
+        <v>0.008938661132333332</v>
+      </c>
+      <c r="R13">
+        <v>0.080447950191</v>
+      </c>
+      <c r="S13">
+        <v>2.846511494901382E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.846511494901383E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H14">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I14">
+        <v>2.878077168156263E-06</v>
+      </c>
+      <c r="J14">
+        <v>2.878077168156264E-06</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7788713333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.336614</v>
+      </c>
+      <c r="O14">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="P14">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="Q14">
+        <v>1.947178333333333E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.00017524605</v>
+      </c>
+      <c r="S14">
+        <v>6.200778199776549E-08</v>
+      </c>
+      <c r="T14">
+        <v>6.200778199776549E-08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H15">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I15">
+        <v>2.878077168156263E-06</v>
+      </c>
+      <c r="J15">
+        <v>2.878077168156264E-06</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.811843</v>
+      </c>
+      <c r="N15">
+        <v>89.435529</v>
+      </c>
+      <c r="O15">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="P15">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="Q15">
+        <v>0.0007452960749999999</v>
+      </c>
+      <c r="R15">
+        <v>0.006707664675</v>
+      </c>
+      <c r="S15">
+        <v>2.373391062917038E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.373391062917039E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.002823666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.008470999999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.0003306320849418846</v>
-      </c>
-      <c r="J13">
-        <v>0.0003306320849418846</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.723095</v>
-      </c>
-      <c r="N13">
-        <v>11.169285</v>
-      </c>
-      <c r="O13">
-        <v>0.1088691776384809</v>
-      </c>
-      <c r="P13">
-        <v>0.1088691776384809</v>
-      </c>
-      <c r="Q13">
-        <v>0.01051277924833333</v>
-      </c>
-      <c r="R13">
-        <v>0.09461501323499999</v>
-      </c>
-      <c r="S13">
-        <v>3.599564318851932E-05</v>
-      </c>
-      <c r="T13">
-        <v>3.599564318851932E-05</v>
+      <c r="G16">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H16">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I16">
+        <v>2.878077168156263E-06</v>
+      </c>
+      <c r="J16">
+        <v>2.878077168156264E-06</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.508900000000001</v>
+      </c>
+      <c r="N16">
+        <v>16.5267</v>
+      </c>
+      <c r="O16">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="P16">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="Q16">
+        <v>0.0001377225</v>
+      </c>
+      <c r="R16">
+        <v>0.0012395025</v>
+      </c>
+      <c r="S16">
+        <v>4.385765088895602E-07</v>
+      </c>
+      <c r="T16">
+        <v>4.385765088895603E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H17">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I17">
+        <v>2.878077168156263E-06</v>
+      </c>
+      <c r="J17">
+        <v>2.878077168156264E-06</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.154567</v>
+      </c>
+      <c r="O17">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="P17">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="Q17">
+        <v>1.288058333333333E-06</v>
+      </c>
+      <c r="R17">
+        <v>1.1592525E-05</v>
+      </c>
+      <c r="S17">
+        <v>4.101814351899209E-09</v>
+      </c>
+      <c r="T17">
+        <v>4.10181435189921E-09</v>
       </c>
     </row>
   </sheetData>
